--- a/SalesSalary.xlsx
+++ b/SalesSalary.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\703230525\Desktop\WIP\Personal Training\Git Repos\Statistics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="11625" windowHeight="6285"/>
   </bookViews>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -98,77 +103,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,10 +119,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="0000FF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFBF0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -217,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,14 +404,15 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,6 +2113,7 @@
   <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>